--- a/Dane.xlsx
+++ b/Dane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/StatOpR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91E2B2F6-60D2-E34D-8F27-F1DA1C47133D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6B77E1-040C-3840-B01C-1F8ABE748C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="2560" windowWidth="28240" windowHeight="17000" xr2:uid="{040AD17B-FDCC-564C-A047-983B73E6CB70}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040AD17B-FDCC-564C-A047-983B73E6CB70}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,147 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+  <si>
+    <t>Nr pomiaru</t>
+  </si>
+  <si>
+    <t>Długość</t>
+  </si>
+  <si>
+    <t>20.45</t>
+  </si>
+  <si>
+    <t>20.81</t>
+  </si>
+  <si>
+    <t>21.19</t>
+  </si>
+  <si>
+    <t>21.51</t>
+  </si>
+  <si>
+    <t>21.21</t>
+  </si>
+  <si>
+    <t>21.41</t>
+  </si>
+  <si>
+    <t>21.40</t>
+  </si>
+  <si>
+    <t>21.35</t>
+  </si>
+  <si>
+    <t>21.50</t>
+  </si>
+  <si>
+    <t>21.25</t>
+  </si>
+  <si>
+    <t>21.38</t>
+  </si>
+  <si>
+    <t>21.31</t>
+  </si>
+  <si>
+    <t>21.48</t>
+  </si>
+  <si>
+    <t>21.49</t>
+  </si>
+  <si>
+    <t>21.60</t>
+  </si>
+  <si>
+    <t>21.47</t>
+  </si>
+  <si>
+    <t>21.42</t>
+  </si>
+  <si>
+    <t>21.45</t>
+  </si>
+  <si>
+    <t>21.52</t>
+  </si>
+  <si>
+    <t>21.73</t>
+  </si>
+  <si>
+    <t>21.62</t>
+  </si>
+  <si>
+    <t>21.69</t>
+  </si>
+  <si>
+    <t>21.70</t>
+  </si>
+  <si>
+    <t>21.72</t>
+  </si>
+  <si>
+    <t>21.75</t>
+  </si>
+  <si>
+    <t>21.68</t>
+  </si>
+  <si>
+    <t>21.82</t>
+  </si>
+  <si>
+    <t>21.92</t>
+  </si>
+  <si>
+    <t>21.65</t>
+  </si>
+  <si>
+    <t>21.80</t>
+  </si>
+  <si>
+    <t>21.71</t>
+  </si>
+  <si>
+    <t>21.83</t>
+  </si>
+  <si>
+    <t>21.58</t>
+  </si>
+  <si>
+    <t>21.55</t>
+  </si>
+  <si>
+    <t>21.95</t>
+  </si>
+  <si>
+    <t>21.85</t>
+  </si>
+  <si>
+    <t>22.13</t>
+  </si>
+  <si>
+    <t>22.95</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -67,8 +202,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -383,12 +524,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20BB74A-23BB-374B-A772-D0306B561ABB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dane.xlsx
+++ b/Dane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/StatOpR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6B77E1-040C-3840-B01C-1F8ABE748C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE7E9F8-9C4E-5F4A-BD02-83635D22C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040AD17B-FDCC-564C-A047-983B73E6CB70}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17100" xr2:uid="{040AD17B-FDCC-564C-A047-983B73E6CB70}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,129 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Nr pomiaru</t>
   </si>
   <si>
     <t>Długość</t>
-  </si>
-  <si>
-    <t>20.45</t>
-  </si>
-  <si>
-    <t>20.81</t>
-  </si>
-  <si>
-    <t>21.19</t>
-  </si>
-  <si>
-    <t>21.51</t>
-  </si>
-  <si>
-    <t>21.21</t>
-  </si>
-  <si>
-    <t>21.41</t>
-  </si>
-  <si>
-    <t>21.40</t>
-  </si>
-  <si>
-    <t>21.35</t>
-  </si>
-  <si>
-    <t>21.50</t>
-  </si>
-  <si>
-    <t>21.25</t>
-  </si>
-  <si>
-    <t>21.38</t>
-  </si>
-  <si>
-    <t>21.31</t>
-  </si>
-  <si>
-    <t>21.48</t>
-  </si>
-  <si>
-    <t>21.49</t>
-  </si>
-  <si>
-    <t>21.60</t>
-  </si>
-  <si>
-    <t>21.47</t>
-  </si>
-  <si>
-    <t>21.42</t>
-  </si>
-  <si>
-    <t>21.45</t>
-  </si>
-  <si>
-    <t>21.52</t>
-  </si>
-  <si>
-    <t>21.73</t>
-  </si>
-  <si>
-    <t>21.62</t>
-  </si>
-  <si>
-    <t>21.69</t>
-  </si>
-  <si>
-    <t>21.70</t>
-  </si>
-  <si>
-    <t>21.72</t>
-  </si>
-  <si>
-    <t>21.75</t>
-  </si>
-  <si>
-    <t>21.68</t>
-  </si>
-  <si>
-    <t>21.82</t>
-  </si>
-  <si>
-    <t>21.92</t>
-  </si>
-  <si>
-    <t>21.65</t>
-  </si>
-  <si>
-    <t>21.80</t>
-  </si>
-  <si>
-    <t>21.71</t>
-  </si>
-  <si>
-    <t>21.83</t>
-  </si>
-  <si>
-    <t>21.58</t>
-  </si>
-  <si>
-    <t>21.55</t>
-  </si>
-  <si>
-    <t>21.95</t>
-  </si>
-  <si>
-    <t>21.85</t>
-  </si>
-  <si>
-    <t>22.13</t>
-  </si>
-  <si>
-    <t>22.95</t>
-  </si>
-  <si>
-    <t>22.00</t>
   </si>
 </sst>
 </file>
@@ -228,7 +111,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013 — 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
       <a:dk1>
@@ -516,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20BB74A-23BB-374B-A772-D0306B561ABB}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,584 +431,584 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="2">
+        <v>20.45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="B3" s="2">
+        <v>20.81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+      <c r="B4" s="2">
+        <v>21.19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+      <c r="B5" s="2">
+        <v>21.51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
+      <c r="B6" s="2">
+        <v>21.21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
+      <c r="B7" s="2">
+        <v>21.41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
+      <c r="B8" s="2">
+        <v>21.4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
+      <c r="B9" s="2">
+        <v>21.35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
+      <c r="B10" s="2">
+        <v>21.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
+      <c r="B11" s="2">
+        <v>21.25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
+      <c r="B12" s="2">
+        <v>21.25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
+      <c r="B13" s="2">
+        <v>21.38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
+      <c r="B14" s="2">
+        <v>21.31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
+      <c r="B15" s="2">
+        <v>21.48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
+      <c r="B16" s="2">
+        <v>21.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
+      <c r="B17" s="2">
+        <v>21.51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
+      <c r="B18" s="2">
+        <v>21.6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
+      <c r="B19" s="2">
+        <v>21.47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
+      <c r="B20" s="2">
+        <v>21.49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
+      <c r="B21" s="2">
+        <v>21.48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
+      <c r="B22" s="2">
+        <v>21.5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
+      <c r="B23" s="2">
+        <v>21.42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
+      <c r="B24" s="2">
+        <v>21.45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
+      <c r="B25" s="2">
+        <v>21.31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
+      <c r="B26" s="2">
+        <v>21.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
+      <c r="B27" s="2">
+        <v>21.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>20</v>
+      <c r="B28" s="2">
+        <v>21.52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>21</v>
+      <c r="B29" s="2">
+        <v>21.73</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
+      <c r="B30" s="2">
+        <v>21.62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>23</v>
+      <c r="B31" s="2">
+        <v>21.69</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>24</v>
+      <c r="B32" s="2">
+        <v>21.7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>25</v>
+      <c r="B33" s="2">
+        <v>21.72</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>26</v>
+      <c r="B34" s="2">
+        <v>21.75</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>24</v>
+      <c r="B35" s="2">
+        <v>21.7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>21</v>
+      <c r="B36" s="2">
+        <v>21.73</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>25</v>
+      <c r="B37" s="2">
+        <v>21.72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>27</v>
+      <c r="B38" s="2">
+        <v>21.68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>28</v>
+      <c r="B39" s="2">
+        <v>21.82</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>29</v>
+      <c r="B40" s="2">
+        <v>21.92</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>28</v>
+      <c r="B41" s="2">
+        <v>21.82</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
+      <c r="B42" s="2">
+        <v>21.38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>30</v>
+      <c r="B43" s="2">
+        <v>21.65</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>25</v>
+      <c r="B44" s="2">
+        <v>21.72</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>31</v>
+      <c r="B45" s="2">
+        <v>21.8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>27</v>
+      <c r="B46" s="2">
+        <v>21.68</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>31</v>
+      <c r="B47" s="2">
+        <v>21.8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>24</v>
+      <c r="B48" s="2">
+        <v>21.7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>32</v>
+      <c r="B49" s="2">
+        <v>21.71</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>28</v>
+      <c r="B50" s="2">
+        <v>21.82</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>32</v>
+      <c r="B51" s="2">
+        <v>21.71</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>33</v>
+      <c r="B52" s="2">
+        <v>21.83</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>30</v>
+      <c r="B53" s="2">
+        <v>21.65</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>22</v>
+      <c r="B54" s="2">
+        <v>21.62</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>34</v>
+      <c r="B55" s="2">
+        <v>21.58</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>5</v>
+      <c r="B56" s="2">
+        <v>21.51</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>35</v>
+      <c r="B57" s="2">
+        <v>21.55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>16</v>
+      <c r="B58" s="2">
+        <v>21.6</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>22</v>
+      <c r="B59" s="2">
+        <v>21.62</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>30</v>
+      <c r="B60" s="2">
+        <v>21.65</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>19</v>
+      <c r="B61" s="2">
+        <v>21.45</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>24</v>
+      <c r="B62" s="2">
+        <v>21.7</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>36</v>
+      <c r="B63" s="2">
+        <v>21.95</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>38</v>
+      <c r="B64" s="2">
+        <v>22.13</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>37</v>
+      <c r="B65" s="2">
+        <v>21.85</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>39</v>
+      <c r="B66" s="2">
+        <v>22.95</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>38</v>
+      <c r="B67" s="2">
+        <v>22.13</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>40</v>
+      <c r="B68" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>33</v>
+      <c r="B69" s="2">
+        <v>21.83</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>28</v>
+      <c r="B70" s="2">
+        <v>21.82</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>36</v>
+      <c r="B71" s="2">
+        <v>21.95</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>26</v>
+      <c r="B72" s="2">
+        <v>21.75</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>31</v>
+      <c r="B73" s="2">
+        <v>21.8</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>26</v>
+      <c r="B74" s="2">
+        <v>21.75</v>
       </c>
     </row>
   </sheetData>
